--- a/atndnc-mngmnt/documents/operation-manual/開発者オペレーション.xlsx
+++ b/atndnc-mngmnt/documents/operation-manual/開発者オペレーション.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\atndnc-mngmnt\documents\operation-manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B76A2E1-F5BA-4C06-8032-E7E605E2EA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECFE91E-435B-4625-AEEC-563BF588579E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="3" r:id="rId1"/>
     <sheet name="初期ユーザ登録" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">概要!$A$1:$D$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">概要!$A$1:$D$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,14 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="269">
-  <si>
-    <t>ホーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ダッシュボード</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="208">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -57,644 +50,6 @@
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠打刻を行える。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠報告</t>
-    <rPh sb="0" eb="4">
-      <t>キンタイホウコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインした従業員の勤怠全般の機能</t>
-    <rPh sb="12" eb="14">
-      <t>ゼンパン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〃</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠報告 ⇒ 勤怠一覧</t>
-    <rPh sb="7" eb="11">
-      <t>キンタイイチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠報告 ⇒ 勤怠詳細</t>
-    <rPh sb="9" eb="11">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠報告 ⇒ 勤怠編集</t>
-    <rPh sb="9" eb="11">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠報告 ⇒ 予定確認</t>
-    <rPh sb="7" eb="9">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>誰でも可</t>
-    <rPh sb="0" eb="1">
-      <t>ダレ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠打刻を行え、直近１週間の勤怠状況を閲覧</t>
-    <rPh sb="8" eb="10">
-      <t>チョッキン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シュウカン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>エツラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能として実装するか検討中</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ケントウナカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠報告 ⇒ 申請</t>
-    <rPh sb="7" eb="9">
-      <t>シンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠に関する申請を行う</t>
-    <rPh sb="3" eb="4">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠報告 ⇒ 申請 ⇒ 残業申請</t>
-    <rPh sb="12" eb="16">
-      <t>ザンギョウシンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>残業申請を行う</t>
-    <rPh sb="0" eb="2">
-      <t>ザンギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠報告 ⇒ 申請 ⇒ 休暇申請</t>
-    <rPh sb="12" eb="14">
-      <t>キュウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休暇申請を行う</t>
-    <rPh sb="0" eb="2">
-      <t>キュウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検討中</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休暇申請を行う</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠報告 ⇒ 申請 ⇒ 振出・休出申請</t>
-    <rPh sb="12" eb="13">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キュウシュツ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>振出・休出申請を行う</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠報告 ⇒ 申請 ⇒ 代休申請</t>
-    <rPh sb="12" eb="16">
-      <t>ダイキュウシンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>代休申請を行う</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2022/5/9　時点では以下の白い部分の機能が利用可能となります。</t>
-    <rPh sb="16" eb="17">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ブブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠報告 ⇒ 申請 ⇒ 勤務形態変更申請</t>
-    <rPh sb="12" eb="14">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ケイタイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤務形態変更申請を行う</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠管理</t>
-    <rPh sb="0" eb="2">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイドバーメニュー名</t>
-    <rPh sb="9" eb="10">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>権限(権限者のみ/誰でも可)</t>
-    <rPh sb="0" eb="2">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ダレ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>権限者のみ</t>
-    <rPh sb="0" eb="2">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休暇管理</t>
-    <rPh sb="0" eb="2">
-      <t>キュウカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠設定</t>
-    <rPh sb="0" eb="2">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>人事管理</t>
-    <rPh sb="0" eb="2">
-      <t>ジンジ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>人事管理 ⇒ 社員一覧</t>
-    <rPh sb="7" eb="9">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>人事管理 ⇒ 人事設定</t>
-    <rPh sb="7" eb="11">
-      <t>ジンジセッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント設定</t>
-    <rPh sb="5" eb="7">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント設定 ⇒ プロフィール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント設定 ⇒ パスワード変更</t>
-    <rPh sb="15" eb="17">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインした従業員のパスワード変更を行う</t>
-    <rPh sb="15" eb="17">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインした従業員のプロフィールを閲覧できる</t>
-    <rPh sb="17" eb="19">
-      <t>エツラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>従業員勤怠全般を管理する</t>
-    <rPh sb="0" eb="3">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゼンパン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠設定を行う(勤務時間の変更等)</t>
-    <rPh sb="0" eb="2">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ナド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>従業員情報を管理する</t>
-    <rPh sb="0" eb="3">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>給与計算</t>
-    <rPh sb="0" eb="2">
-      <t>キュウヨ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケイサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>給与計算を行う</t>
-    <rPh sb="5" eb="6">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>従業員の打刻状況をリアルタイムで確認したり、最新の勤務状況をグラフで直観的に把握し、リスクを特定できます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開発中</t>
-    <rPh sb="0" eb="2">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠管理 ⇒ 勤怠一覧</t>
-    <rPh sb="7" eb="11">
-      <t>キンタイイチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠管理 ⇒ 勤怠詳細</t>
-    <rPh sb="9" eb="11">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠管理 ⇒ 勤怠編集</t>
-    <rPh sb="9" eb="11">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠管理 ⇒ 勤怠状況</t>
-    <rPh sb="7" eb="9">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者は従業員全ての勤怠を管理できる</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>従業員の日毎の勤怠状況を確認し、一括で承認を行える</t>
-    <rPh sb="0" eb="3">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒゴト</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イッカツ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインした従業員が所属する部下の勤怠を管理する</t>
-    <rPh sb="10" eb="12">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ブカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>部下の承認は一次承認までとする</t>
-    <rPh sb="0" eb="2">
-      <t>ブカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>イチジショウニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>月毎の勤怠状況を参照・更新できます。</t>
-    <rPh sb="0" eb="2">
-      <t>ツキゴト</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインした従業員の月毎の勤怠詳細を参照・更新できます。</t>
-    <rPh sb="10" eb="12">
-      <t>ツキゴト</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日毎の勤怠詳細を参照・承認・解除できます。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒゴト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カイジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日毎の勤怠を更新できます。</t>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>従業員情報を検索、登録、編集、出力できます。</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインした従業員に関する全般機能</t>
-    <rPh sb="10" eb="11">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ゼンパン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開発中</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6727,6 +6082,25 @@
       </rPr>
       <t>;</t>
     </r>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>2022/6/15　開発側の操作オペレーション</t>
+    <rPh sb="10" eb="12">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -6819,7 +6193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6829,12 +6203,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6882,34 +6250,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7098,10 +6451,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B4CCA96-641B-492D-8255-6F42665A292A}" name="テーブル1" displayName="テーブル1" ref="A3:D24" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B4CCA96-641B-492D-8255-6F42665A292A}" name="テーブル1" displayName="テーブル1" ref="A3:D4" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5">
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{38D1745E-9D7C-4892-A431-A573EFBD643D}" name="サイドバーメニュー名" dataDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{BC36EB9A-7CB8-4B46-AAA5-C629FB0A0CD0}" name="権限(権限者のみ/誰でも可)" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{38D1745E-9D7C-4892-A431-A573EFBD643D}" name="列1" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{BC36EB9A-7CB8-4B46-AAA5-C629FB0A0CD0}" name="列2" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{20D25D9A-2E9A-4266-976D-0F267A31CC2A}" name="説明" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{EA1C4F80-B00F-483E-A3AA-54E337111B0D}" name="備考" dataDxfId="0"/>
   </tableColumns>
@@ -7375,9 +6728,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D33"/>
+  <dimension ref="A2:D5"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -7390,433 +6745,37 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="37.5">
-      <c r="A4" s="7" t="s">
+      <c r="A3" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="75">
-      <c r="A5" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="56.25">
-      <c r="A6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="37.5">
-      <c r="A7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="37.5">
-      <c r="A8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="56.25">
-      <c r="A19" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="37.5">
-      <c r="A20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="37.5">
-      <c r="A21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="37.5">
-      <c r="A22" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" ht="37.5">
-      <c r="A28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" ht="37.5">
-      <c r="A31" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="37.5">
-      <c r="A32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="A4" location="ホーム!A1" display="ホーム" xr:uid="{6FA72CA5-BA80-4846-9E2E-2357B78B3220}"/>
-    <hyperlink ref="A5" location="ダッシュボード!A1" display="ダッシュボード" xr:uid="{C23CDA0E-92F4-466F-94A0-5EA675BF1755}"/>
-    <hyperlink ref="A6" location="'勤怠報告 ⇒ 勤怠一覧'!A1" display="勤怠報告" xr:uid="{65BE3BCC-1B67-4F42-A5E7-88CBE99F3EFD}"/>
-    <hyperlink ref="A7" location="'勤怠報告 ⇒ 勤怠一覧'!A1" display="勤怠報告 ⇒ 勤怠一覧" xr:uid="{1D036802-548C-4E93-8AE0-B03C65B70E7D}"/>
-    <hyperlink ref="A8" location="'勤怠報告 ⇒ 勤怠詳細'!A1" display="勤怠報告 ⇒ 勤怠詳細" xr:uid="{3786353D-F1DE-4692-ACA5-B90DBE45C594}"/>
-    <hyperlink ref="A9" location="'勤怠管理 ⇒ 勤怠編集'!A1" display="勤怠報告 ⇒ 勤怠編集" xr:uid="{D830861D-0B60-45E3-B6B4-F611EBAB7E12}"/>
-    <hyperlink ref="A20" location="'勤怠管理 ⇒ 勤怠状況'!A1" display="勤怠管理 ⇒ 勤怠状況" xr:uid="{A641CC5F-9682-4C85-AC7D-D15593C40DAE}"/>
-    <hyperlink ref="A22" location="'勤怠管理 ⇒ 勤怠詳細'!A1" display="勤怠管理 ⇒ 勤怠詳細" xr:uid="{BB2EAE4B-86E9-4144-A223-711A846181C3}"/>
-    <hyperlink ref="A19" location="'勤怠管理 ⇒ 勤怠状況'!A1" display="勤怠管理" xr:uid="{6B1418E3-61C2-4AED-B55E-FCC819E47669}"/>
-    <hyperlink ref="A21" location="'勤怠管理 ⇒ 勤怠一覧'!A1" display="勤怠管理 ⇒ 勤怠一覧" xr:uid="{107EC7E3-7184-45D0-9BD4-93297FD270A5}"/>
-    <hyperlink ref="A23" location="'勤怠管理 ⇒ 勤怠編集'!A1" display="勤怠管理 ⇒ 勤怠編集" xr:uid="{4646246D-4D26-4EE2-B9BE-1A792914D24E}"/>
-    <hyperlink ref="A27" location="'人事管理 ⇒ 社員一覧'!A1" display="人事管理" xr:uid="{92254D06-28C4-448E-9809-D9F1D72E9363}"/>
-    <hyperlink ref="A28" location="'人事管理 ⇒ 社員一覧'!A1" display="人事管理 ⇒ 社員一覧" xr:uid="{BC9F11AD-9256-48C5-AF91-EA50426A7DD8}"/>
-    <hyperlink ref="A29" location="'人事管理 ⇒ 人事設定'!A1" display="人事管理 ⇒ 人事設定" xr:uid="{1AAFBB89-BD93-44D3-A27D-7CA609F93BF0}"/>
-    <hyperlink ref="A31" location="'アカウント設定 ⇒ プロフィール'!A1" display="アカウント設定 ⇒ プロフィール" xr:uid="{CF66F8D0-6CE1-48B2-92CD-B8AC2E64C007}"/>
-    <hyperlink ref="A32" location="'アカウント設定 ⇒ パスワード変更'!A1" display="アカウント設定 ⇒ パスワード変更" xr:uid="{48F6E15E-A4D0-4214-8BAE-B0E748F67B58}"/>
-  </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -7824,7 +6783,7 @@
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="38" max="3" man="1"/>
+    <brk id="10" max="3" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="1" max="36" man="1"/>
@@ -7842,7 +6801,7 @@
   </sheetPr>
   <dimension ref="A1:AK274"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -7851,145 +6810,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24">
-      <c r="A1" s="21">
+      <c r="A1" s="16">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>68</v>
+      <c r="B1" s="16" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:37">
-      <c r="B2" s="8" t="s">
-        <v>66</v>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:37">
       <c r="B3" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="24.75" thickBot="1">
-      <c r="A5" s="21">
+      <c r="A5" s="16">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>120</v>
+      <c r="B5" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="57.75" thickBot="1">
-      <c r="C6" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
+      <c r="C6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
     </row>
     <row r="7" spans="1:37" ht="45.75" thickBot="1">
-      <c r="C7" s="17">
+      <c r="C7" s="12">
         <v>44699.548680555556</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="19">
+      <c r="D7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="14">
         <v>0.33402777777777781</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="14">
         <v>0.7090277777777777</v>
       </c>
-      <c r="L7" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="P7" s="18"/>
+      <c r="L7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:37">
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:37" ht="24">
-      <c r="A9" s="21">
+      <c r="A9" s="16">
         <v>3</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>69</v>
+      <c r="B9" s="16" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -7997,7 +6956,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -8005,7 +6964,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:37">
@@ -8013,7 +6972,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:37">
@@ -8021,7 +6980,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:37">
@@ -8029,7 +6988,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -8037,7 +6996,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:37">
@@ -8045,1251 +7004,1251 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="D17" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="D18" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="D19" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="D20" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="D21" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="D22" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="D23" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="D24" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="D25" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="D26" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="D27" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="D28" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="D29" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="5"/>
+      <c r="D30" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="D31" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="D32" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4">
+      <c r="D63" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="D64" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="D80" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" s="19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="D17" s="22" t="s">
+    <row r="84" spans="4:4">
+      <c r="D84" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="D86" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="D87" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4">
+      <c r="D88" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4">
+      <c r="D90" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4">
+      <c r="D91" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="D94" s="19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="D18" s="22" t="s">
+    <row r="95" spans="4:4">
+      <c r="D95" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="D96" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="D19" s="22" t="s">
+    <row r="101" spans="4:4">
+      <c r="D101" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" s="19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="D20" s="23" t="s">
+    <row r="103" spans="4:4">
+      <c r="D103" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4">
+      <c r="D105" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4">
+      <c r="D107" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4">
+      <c r="D108" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4">
+      <c r="D109" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4">
+      <c r="D110" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4">
+      <c r="D111" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4">
+      <c r="D112" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4">
+      <c r="D116" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4">
+      <c r="D117" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4">
+      <c r="D118" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="D119" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4">
+      <c r="D121" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4">
+      <c r="D122" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4">
+      <c r="D123" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4">
+      <c r="D124" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4">
+      <c r="D125" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4">
+      <c r="D126" s="19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
-      <c r="D21" s="23" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="D22" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="D23" s="23" t="s">
+    <row r="127" spans="4:4">
+      <c r="D127" s="19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
-      <c r="D24" s="23" t="s">
+    <row r="128" spans="4:4">
+      <c r="D128" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
-      <c r="D25" s="24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="D26" s="24" t="s">
+    <row r="129" spans="4:4">
+      <c r="D129" s="19" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
-      <c r="D27" s="24" t="s">
+    <row r="130" spans="4:4">
+      <c r="D130" s="19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
-      <c r="D28" s="24" t="s">
+    <row r="131" spans="4:4">
+      <c r="D131" s="19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
-      <c r="D29" s="24" t="s">
+    <row r="132" spans="4:4">
+      <c r="D132" s="19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="8"/>
-      <c r="D30" s="25" t="s">
+    <row r="133" spans="4:4">
+      <c r="D133" s="19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
-      <c r="D31" s="23" t="s">
+    <row r="134" spans="4:4">
+      <c r="D134" s="19" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
-      <c r="D32" s="24" t="s">
+    <row r="135" spans="4:4">
+      <c r="D135" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4">
+      <c r="D136" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4">
+      <c r="D137" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4">
+      <c r="D138" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4">
+      <c r="D139" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="140" spans="4:4">
+      <c r="D140" s="19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="24" t="s">
+    <row r="141" spans="4:4">
+      <c r="D141" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="24" t="s">
+    <row r="142" spans="4:4">
+      <c r="D142" s="19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="4:4">
-      <c r="D35" s="24" t="s">
+    <row r="143" spans="4:4">
+      <c r="D143" s="19" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="4:4">
-      <c r="D36" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4">
-      <c r="D37" s="25" t="s">
+    <row r="144" spans="4:4">
+      <c r="D144" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="4:4">
-      <c r="D38" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4">
-      <c r="D39" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4">
-      <c r="D40" s="23" t="s">
+    <row r="145" spans="4:4">
+      <c r="D145" s="19" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="4:4">
-      <c r="D41" s="24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4">
-      <c r="D42" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4">
-      <c r="D43" s="24" t="s">
+    <row r="146" spans="4:4">
+      <c r="D146" s="19" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="4:4">
-      <c r="D44" s="24" t="s">
+    <row r="147" spans="4:4">
+      <c r="D147" s="19" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="4:4">
-      <c r="D45" s="24" t="s">
+    <row r="148" spans="4:4">
+      <c r="D148" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="4:4">
-      <c r="D46" s="24" t="s">
+    <row r="149" spans="4:4">
+      <c r="D149" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="150" spans="4:4">
+      <c r="D150" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4">
+      <c r="D151" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4">
+      <c r="D152" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4">
+      <c r="D153" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4">
+      <c r="D154" s="18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="4:4">
-      <c r="D47" s="24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="4:4">
-      <c r="D48" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4">
-      <c r="D49" s="25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4">
-      <c r="D51" s="24" t="s">
+    <row r="155" spans="4:4">
+      <c r="D155" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4">
+      <c r="D156" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="157" spans="4:4">
+      <c r="D157" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="158" spans="4:4">
+      <c r="D158" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4">
+      <c r="D159" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="160" spans="4:4">
+      <c r="D160" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4">
+      <c r="D161" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4">
+      <c r="D162" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4">
+      <c r="D163" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4">
+      <c r="D164" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="165" spans="4:4">
+      <c r="D165" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="166" spans="4:4">
+      <c r="D166" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4">
+      <c r="D167" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4">
+      <c r="D168" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4">
+      <c r="D169" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4">
+      <c r="D170" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="171" spans="4:4">
+      <c r="D171" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4">
+      <c r="D172" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4">
+      <c r="D173" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4">
+      <c r="D174" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4">
+      <c r="D175" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4">
+      <c r="D176" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4">
+      <c r="D177" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4">
+      <c r="D178" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4">
+      <c r="D179" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4">
+      <c r="D180" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="181" spans="4:4">
+      <c r="D181" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="182" spans="4:4">
+      <c r="D182" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="183" spans="4:4">
+      <c r="D183" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="4:4">
+      <c r="D184" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="185" spans="4:4">
+      <c r="D185" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="186" spans="4:4">
+      <c r="D186" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="187" spans="4:4">
+      <c r="D187" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="4:4">
+      <c r="D188" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="189" spans="4:4">
+      <c r="D189" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="190" spans="4:4">
+      <c r="D190" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="191" spans="4:4">
+      <c r="D191" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="192" spans="4:4">
+      <c r="D192" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="193" spans="4:4">
+      <c r="D193" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4">
+      <c r="D194" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="195" spans="4:4">
+      <c r="D195" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="196" spans="4:4">
+      <c r="D196" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="197" spans="4:4">
+      <c r="D197" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="198" spans="4:4">
+      <c r="D198" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="199" spans="4:4">
+      <c r="D199" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="200" spans="4:4">
+      <c r="D200" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="201" spans="4:4">
+      <c r="D201" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="202" spans="4:4">
+      <c r="D202" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="203" spans="4:4">
+      <c r="D203" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="204" spans="4:4">
+      <c r="D204" s="19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="4:4">
-      <c r="D52" s="24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4">
-      <c r="D53" s="24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4">
-      <c r="D54" s="24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4">
-      <c r="D55" s="24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="4:4">
-      <c r="D56" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="4:4">
-      <c r="D57" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="58" spans="4:4">
-      <c r="D58" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="59" spans="4:4">
-      <c r="D59" s="25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="4:4">
-      <c r="D60" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="4:4">
-      <c r="D61" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="4:4">
-      <c r="D62" s="23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="63" spans="4:4">
-      <c r="D63" s="24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="4:4">
-      <c r="D64" s="24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4">
-      <c r="D65" s="24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="66" spans="4:4">
-      <c r="D66" s="24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="67" spans="4:4">
-      <c r="D67" s="24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="68" spans="4:4">
-      <c r="D68" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="69" spans="4:4">
-      <c r="D69" s="24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="70" spans="4:4">
-      <c r="D70" s="24" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="71" spans="4:4">
-      <c r="D71" s="24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="72" spans="4:4">
-      <c r="D72" s="24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" spans="4:4">
-      <c r="D73" s="24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="74" spans="4:4">
-      <c r="D74" s="24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="4:4">
-      <c r="D75" s="24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="76" spans="4:4">
-      <c r="D76" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="77" spans="4:4">
-      <c r="D77" s="24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="78" spans="4:4">
-      <c r="D78" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="79" spans="4:4">
-      <c r="D79" s="25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="80" spans="4:4">
-      <c r="D80" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="81" spans="4:4">
-      <c r="D81" s="24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="82" spans="4:4">
-      <c r="D82" s="24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="83" spans="4:4">
-      <c r="D83" s="24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="84" spans="4:4">
-      <c r="D84" s="24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="85" spans="4:4">
-      <c r="D85" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="86" spans="4:4">
-      <c r="D86" s="24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="87" spans="4:4">
-      <c r="D87" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="88" spans="4:4">
-      <c r="D88" s="24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="89" spans="4:4">
-      <c r="D89" s="24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="90" spans="4:4">
-      <c r="D90" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="91" spans="4:4">
-      <c r="D91" s="24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="92" spans="4:4">
-      <c r="D92" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="93" spans="4:4">
-      <c r="D93" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="94" spans="4:4">
-      <c r="D94" s="24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="95" spans="4:4">
-      <c r="D95" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="96" spans="4:4">
-      <c r="D96" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="97" spans="4:4">
-      <c r="D97" s="25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="4:4">
-      <c r="D98" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="4:4">
-      <c r="D99" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="4:4">
-      <c r="D100" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="101" spans="4:4">
-      <c r="D101" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="4:4">
-      <c r="D102" s="24" t="s">
+    <row r="205" spans="4:4">
+      <c r="D205" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="206" spans="4:4">
+      <c r="D206" s="19" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="103" spans="4:4">
-      <c r="D103" s="24" t="s">
+    <row r="207" spans="4:4">
+      <c r="D207" s="19" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="4:4">
-      <c r="D104" s="24" t="s">
+    <row r="208" spans="4:4">
+      <c r="D208" s="19" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="105" spans="4:4">
-      <c r="D105" s="24" t="s">
+    <row r="209" spans="4:4">
+      <c r="D209" s="19" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="106" spans="4:4">
-      <c r="D106" s="24" t="s">
+    <row r="210" spans="4:4">
+      <c r="D210" s="19" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="107" spans="4:4">
-      <c r="D107" s="24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="108" spans="4:4">
-      <c r="D108" s="24" t="s">
+    <row r="211" spans="4:4">
+      <c r="D211" s="19" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="109" spans="4:4">
-      <c r="D109" s="24" t="s">
+    <row r="212" spans="4:4">
+      <c r="D212" s="19" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="110" spans="4:4">
-      <c r="D110" s="25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="111" spans="4:4">
-      <c r="D111" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="112" spans="4:4">
-      <c r="D112" s="24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="113" spans="4:4">
-      <c r="D113" s="24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="114" spans="4:4">
-      <c r="D114" s="24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="115" spans="4:4">
-      <c r="D115" s="24" t="s">
+    <row r="213" spans="4:4">
+      <c r="D213" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="214" spans="4:4">
+      <c r="D214" s="19" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="116" spans="4:4">
-      <c r="D116" s="24" t="s">
+    <row r="215" spans="4:4">
+      <c r="D215" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="216" spans="4:4">
+      <c r="D216" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="217" spans="4:4">
+      <c r="D217" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="218" spans="4:4">
+      <c r="D218" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="219" spans="4:4">
+      <c r="D219" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="220" spans="4:4">
+      <c r="D220" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="221" spans="4:4">
+      <c r="D221" s="18" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="117" spans="4:4">
-      <c r="D117" s="24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="118" spans="4:4">
-      <c r="D118" s="24" t="s">
+    <row r="222" spans="4:4">
+      <c r="D222" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="223" spans="4:4">
+      <c r="D223" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="224" spans="4:4">
+      <c r="D224" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="225" spans="4:4">
+      <c r="D225" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="226" spans="4:4">
+      <c r="D226" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="227" spans="4:4">
+      <c r="D227" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="228" spans="4:4">
+      <c r="D228" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="229" spans="4:4">
+      <c r="D229" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="230" spans="4:4">
+      <c r="D230" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="231" spans="4:4">
+      <c r="D231" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="232" spans="4:4">
+      <c r="D232" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="233" spans="4:4">
+      <c r="D233" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="234" spans="4:4">
+      <c r="D234" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="235" spans="4:4">
+      <c r="D235" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="236" spans="4:4">
+      <c r="D236" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="237" spans="4:4">
+      <c r="D237" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="238" spans="4:4">
+      <c r="D238" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="239" spans="4:4">
+      <c r="D239" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="240" spans="4:4">
+      <c r="D240" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="241" spans="4:4">
+      <c r="D241" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="242" spans="4:4">
+      <c r="D242" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="243" spans="4:4">
+      <c r="D243" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="244" spans="4:4">
+      <c r="D244" s="17" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="119" spans="4:4">
-      <c r="D119" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="120" spans="4:4">
-      <c r="D120" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="121" spans="4:4">
-      <c r="D121" s="25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="122" spans="4:4">
-      <c r="D122" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="123" spans="4:4">
-      <c r="D123" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="124" spans="4:4">
-      <c r="D124" s="23" t="s">
+    <row r="245" spans="4:4">
+      <c r="D245" s="17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="125" spans="4:4">
-      <c r="D125" s="24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="126" spans="4:4">
-      <c r="D126" s="24" t="s">
+    <row r="246" spans="4:4">
+      <c r="D246" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="127" spans="4:4">
-      <c r="D127" s="24" t="s">
+    <row r="247" spans="4:4">
+      <c r="D247" s="17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="128" spans="4:4">
-      <c r="D128" s="24" t="s">
+    <row r="248" spans="4:4">
+      <c r="D248" s="17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="129" spans="4:4">
-      <c r="D129" s="24" t="s">
+    <row r="249" spans="4:4">
+      <c r="D249" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="130" spans="4:4">
-      <c r="D130" s="24" t="s">
+    <row r="250" spans="4:4">
+      <c r="D250" s="17" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="131" spans="4:4">
-      <c r="D131" s="24" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="132" spans="4:4">
-      <c r="D132" s="24" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="133" spans="4:4">
-      <c r="D133" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="134" spans="4:4">
-      <c r="D134" s="24" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="135" spans="4:4">
-      <c r="D135" s="24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="136" spans="4:4">
-      <c r="D136" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="137" spans="4:4">
-      <c r="D137" s="25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="138" spans="4:4">
-      <c r="D138" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="139" spans="4:4">
-      <c r="D139" s="24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="140" spans="4:4">
-      <c r="D140" s="24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="141" spans="4:4">
-      <c r="D141" s="24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="142" spans="4:4">
-      <c r="D142" s="24" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="143" spans="4:4">
-      <c r="D143" s="24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="144" spans="4:4">
-      <c r="D144" s="24" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="145" spans="4:4">
-      <c r="D145" s="24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="146" spans="4:4">
-      <c r="D146" s="24" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="147" spans="4:4">
-      <c r="D147" s="24" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="148" spans="4:4">
-      <c r="D148" s="24" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="149" spans="4:4">
-      <c r="D149" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="150" spans="4:4">
-      <c r="D150" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="151" spans="4:4">
-      <c r="D151" s="25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="152" spans="4:4">
-      <c r="D152" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="153" spans="4:4">
-      <c r="D153" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="154" spans="4:4">
-      <c r="D154" s="23" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="155" spans="4:4">
-      <c r="D155" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="156" spans="4:4">
-      <c r="D156" s="24" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="157" spans="4:4">
-      <c r="D157" s="24" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="158" spans="4:4">
-      <c r="D158" s="24" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="159" spans="4:4">
-      <c r="D159" s="24" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="160" spans="4:4">
-      <c r="D160" s="24" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="161" spans="4:4">
-      <c r="D161" s="24" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="162" spans="4:4">
-      <c r="D162" s="24" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="163" spans="4:4">
-      <c r="D163" s="24" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="164" spans="4:4">
-      <c r="D164" s="24" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="165" spans="4:4">
-      <c r="D165" s="24" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="166" spans="4:4">
-      <c r="D166" s="24" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="167" spans="4:4">
-      <c r="D167" s="24" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="168" spans="4:4">
-      <c r="D168" s="25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="169" spans="4:4">
-      <c r="D169" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="170" spans="4:4">
-      <c r="D170" s="24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="171" spans="4:4">
-      <c r="D171" s="24" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="172" spans="4:4">
-      <c r="D172" s="24" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="173" spans="4:4">
-      <c r="D173" s="24" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="174" spans="4:4">
-      <c r="D174" s="24" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="175" spans="4:4">
-      <c r="D175" s="24" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="176" spans="4:4">
-      <c r="D176" s="24" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="177" spans="4:4">
-      <c r="D177" s="24" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="178" spans="4:4">
-      <c r="D178" s="24" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="179" spans="4:4">
-      <c r="D179" s="24" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="180" spans="4:4">
-      <c r="D180" s="24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="181" spans="4:4">
-      <c r="D181" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="182" spans="4:4">
-      <c r="D182" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="183" spans="4:4">
-      <c r="D183" s="25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="184" spans="4:4">
-      <c r="D184" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="185" spans="4:4">
-      <c r="D185" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="186" spans="4:4">
-      <c r="D186" s="23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="187" spans="4:4">
-      <c r="D187" s="24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="188" spans="4:4">
-      <c r="D188" s="24" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="189" spans="4:4">
-      <c r="D189" s="24" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="190" spans="4:4">
-      <c r="D190" s="24" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="191" spans="4:4">
-      <c r="D191" s="24" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="192" spans="4:4">
-      <c r="D192" s="24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="193" spans="4:4">
-      <c r="D193" s="24" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="194" spans="4:4">
-      <c r="D194" s="24" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="195" spans="4:4">
-      <c r="D195" s="24" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="196" spans="4:4">
-      <c r="D196" s="24" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="197" spans="4:4">
-      <c r="D197" s="24" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="198" spans="4:4">
-      <c r="D198" s="24" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="199" spans="4:4">
-      <c r="D199" s="24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="200" spans="4:4">
-      <c r="D200" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="201" spans="4:4">
-      <c r="D201" s="25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="202" spans="4:4">
-      <c r="D202" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="203" spans="4:4">
-      <c r="D203" s="24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="204" spans="4:4">
-      <c r="D204" s="24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="205" spans="4:4">
-      <c r="D205" s="24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="206" spans="4:4">
-      <c r="D206" s="24" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="207" spans="4:4">
-      <c r="D207" s="24" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="208" spans="4:4">
-      <c r="D208" s="24" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="209" spans="4:4">
-      <c r="D209" s="24" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="210" spans="4:4">
-      <c r="D210" s="24" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="211" spans="4:4">
-      <c r="D211" s="24" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="212" spans="4:4">
-      <c r="D212" s="24" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="213" spans="4:4">
-      <c r="D213" s="24" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="214" spans="4:4">
-      <c r="D214" s="24" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="215" spans="4:4">
-      <c r="D215" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="216" spans="4:4">
-      <c r="D216" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="217" spans="4:4">
-      <c r="D217" s="25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="218" spans="4:4">
-      <c r="D218" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="219" spans="4:4">
-      <c r="D219" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="220" spans="4:4">
-      <c r="D220" s="22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="221" spans="4:4">
-      <c r="D221" s="23" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="222" spans="4:4">
-      <c r="D222" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="223" spans="4:4">
-      <c r="D223" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="224" spans="4:4">
-      <c r="D224" s="23" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="225" spans="4:4">
-      <c r="D225" s="22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="226" spans="4:4">
-      <c r="D226" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="227" spans="4:4">
-      <c r="D227" s="23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="228" spans="4:4">
-      <c r="D228" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="229" spans="4:4">
-      <c r="D229" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="230" spans="4:4">
-      <c r="D230" s="23" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="231" spans="4:4">
-      <c r="D231" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="232" spans="4:4">
-      <c r="D232" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="233" spans="4:4">
-      <c r="D233" s="23" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="234" spans="4:4">
-      <c r="D234" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="235" spans="4:4">
-      <c r="D235" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="236" spans="4:4">
-      <c r="D236" s="23" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="237" spans="4:4">
-      <c r="D237" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="238" spans="4:4">
-      <c r="D238" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="239" spans="4:4">
-      <c r="D239" s="23" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="240" spans="4:4">
-      <c r="D240" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="241" spans="4:4">
-      <c r="D241" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="242" spans="4:4">
-      <c r="D242" s="23" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="243" spans="4:4">
-      <c r="D243" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="244" spans="4:4">
-      <c r="D244" s="22" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="245" spans="4:4">
-      <c r="D245" s="22" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="246" spans="4:4">
-      <c r="D246" s="22" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="247" spans="4:4">
-      <c r="D247" s="22" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="248" spans="4:4">
-      <c r="D248" s="22" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="249" spans="4:4">
-      <c r="D249" s="22" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="250" spans="4:4">
-      <c r="D250" s="22" t="s">
-        <v>260</v>
-      </c>
-    </row>
     <row r="251" spans="4:4">
-      <c r="D251" s="23"/>
+      <c r="D251" s="18"/>
     </row>
     <row r="252" spans="4:4">
-      <c r="D252" s="24"/>
+      <c r="D252" s="19"/>
     </row>
     <row r="253" spans="4:4">
-      <c r="D253" s="23"/>
+      <c r="D253" s="18"/>
     </row>
     <row r="254" spans="4:4">
-      <c r="D254" s="24"/>
+      <c r="D254" s="19"/>
     </row>
     <row r="255" spans="4:4">
-      <c r="D255" s="22"/>
+      <c r="D255" s="17"/>
     </row>
     <row r="256" spans="4:4">
-      <c r="D256" s="22"/>
+      <c r="D256" s="17"/>
     </row>
     <row r="257" spans="4:4">
-      <c r="D257" s="23"/>
+      <c r="D257" s="18"/>
     </row>
     <row r="258" spans="4:4">
-      <c r="D258" s="24"/>
+      <c r="D258" s="19"/>
     </row>
     <row r="259" spans="4:4">
-      <c r="D259" s="23"/>
+      <c r="D259" s="18"/>
     </row>
     <row r="260" spans="4:4">
-      <c r="D260" s="24"/>
+      <c r="D260" s="19"/>
     </row>
     <row r="261" spans="4:4">
-      <c r="D261" s="22"/>
+      <c r="D261" s="17"/>
     </row>
     <row r="262" spans="4:4">
-      <c r="D262" s="22"/>
+      <c r="D262" s="17"/>
     </row>
     <row r="263" spans="4:4">
-      <c r="D263" s="23"/>
+      <c r="D263" s="18"/>
     </row>
     <row r="264" spans="4:4">
-      <c r="D264" s="24"/>
+      <c r="D264" s="19"/>
     </row>
     <row r="265" spans="4:4">
-      <c r="D265" s="23"/>
+      <c r="D265" s="18"/>
     </row>
     <row r="266" spans="4:4">
-      <c r="D266" s="24"/>
+      <c r="D266" s="19"/>
     </row>
     <row r="267" spans="4:4">
-      <c r="D267" s="22"/>
+      <c r="D267" s="17"/>
     </row>
     <row r="268" spans="4:4">
-      <c r="D268" s="23"/>
+      <c r="D268" s="18"/>
     </row>
     <row r="269" spans="4:4">
-      <c r="D269" s="23"/>
+      <c r="D269" s="18"/>
     </row>
     <row r="270" spans="4:4">
-      <c r="D270" s="23"/>
+      <c r="D270" s="18"/>
     </row>
     <row r="271" spans="4:4">
-      <c r="D271" s="23"/>
+      <c r="D271" s="18"/>
     </row>
     <row r="272" spans="4:4">
-      <c r="D272" s="23"/>
+      <c r="D272" s="18"/>
     </row>
     <row r="273" spans="4:4">
-      <c r="D273" s="23"/>
+      <c r="D273" s="18"/>
     </row>
     <row r="274" spans="4:4">
-      <c r="D274" s="23"/>
+      <c r="D274" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
